--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_248.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_248.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_227</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0881782945736434</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
+          <t>[['E:7', 'A:min', 'A:min', 'A:min/b3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.14, 20.02)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:28.960000', '0:00:49.060000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:11.883378', '0:00:17.038208')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_150</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1306715063520871</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['E', 'E', 'B'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(46.93228, 55.860352)]</t>
+          <t>[['G', 'G', 'D'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(128.54, 133.9)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:12.672857', '0:00:20.660521'), ('0:00:44.310045', '0:00:50.196303')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:07.968347', '0:00:20.332973'), ('0:00:55.151295', '0:01:00.155195')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06178396072013093</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min7', 'Bb:7', 'Eb:maj6'], ['F:min7', 'Bb:7', 'Eb:7', 'Eb:maj6/3']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2291666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6'], ['Bb:min7', 'Eb:7', 'Ab:7', 'Ab:maj6']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.59, 2.26), (2.68, 4.36)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.93, 18.64), (21.9, 25.17)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:57.777619', '0:01:01.864331')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:17.839297', '0:00:22.785147')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'F', 'Bb']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.24, 8.18), (8.72, 10.48)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91), (0.46, 3.22)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:21.080000', '0:00:24.320000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:16.132993', '0:01:19.023877')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(43.54, 60.0), (127.6, 132.4)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32), (61.48, 63.58)]</t>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:09.920000', '0:00:13.980000'), ('0:00:09.280000', '0:00:13.260000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D'], ['G', 'A', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.953139, 19.672232), (60.040123, 71.429511)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.767369), (9.979342, 15.029682)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2402745995423341</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min', 'G', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'E:min', 'A', 'C']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(15.300272, 20.768571)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(47.639639, 56.381952)]</t>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0298951048951049</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['F', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.41, 24.83), (1.64, 5.11), (20.73, 23.45)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.84, 12.46), (53.5, 61.32), (65.76, 71.7)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1873873873873874</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(142.379117, 149.240614)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_81</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.06, 60.62)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(19.26, 22.26)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_26</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04886091127098321</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb:maj6/5', 'G:min7', 'C:min7', 'F:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj6', 'E:min7', 'A:min7', 'D:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.0, 6.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(27.29, 30.62)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
